--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48CC22A-84F6-42A3-B040-624983E864B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE80717-623B-4A14-A0B1-31A16D5CC3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23993" yWindow="0" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +166,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,19 +503,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -614,6 +617,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1">
+        <f>I3+1</f>
         <v>23</v>
       </c>
       <c r="I4" s="1">
@@ -653,7 +657,8 @@
         <f t="shared" ref="G5:G11" si="4">F4+G4</f>
         <v>37</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:H10" si="5">I4+1</f>
         <v>35</v>
       </c>
       <c r="I5" s="1">
@@ -676,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>7879</v>
+        <v>8820</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>4121</v>
+        <v>3180</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.6565833333333333</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -693,7 +698,8 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="I6" s="1">
@@ -733,7 +739,8 @@
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="I7" s="1">
@@ -773,7 +780,8 @@
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="I8" s="1">
@@ -813,7 +821,8 @@
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="I9" s="1">
@@ -853,7 +862,8 @@
         <f t="shared" si="4"/>
         <v>123</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="I10" s="1">
@@ -877,19 +887,19 @@
         <v>52500</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:J11" si="5">SUM(C3:C10)</f>
-        <v>32018</v>
+        <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
+        <v>32959</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>20482</v>
+        <f t="shared" si="6"/>
+        <v>19541</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.60986666666666667</v>
+        <v>0.62779047619047623</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="G11" s="1">
@@ -899,7 +909,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="K11" s="3">

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE80717-623B-4A14-A0B1-31A16D5CC3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616737C-6C3D-4C77-BED2-E37D9192367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>8820</v>
+        <v>9020</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3180</v>
+        <v>2980</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.73499999999999999</v>
+        <v>0.75166666666666671</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -888,15 +888,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>32959</v>
+        <v>33159</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>19541</v>
+        <v>19341</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.62779047619047623</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616737C-6C3D-4C77-BED2-E37D9192367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEDBB82-46B3-4837-A35F-AE849E84CF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,13 +617,13 @@
         <v>25</v>
       </c>
       <c r="H4" s="1">
-        <f>I3+1</f>
+        <f>H3+J3</f>
         <v>23</v>
       </c>
       <c r="I4" s="1">
         <v>34</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J10" si="2">I4-H4+1</f>
         <v>12</v>
       </c>
@@ -658,13 +658,13 @@
         <v>37</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5:H10" si="5">I4+1</f>
+        <f t="shared" ref="H5:H10" si="5">H4+J4</f>
         <v>35</v>
       </c>
       <c r="I5" s="1">
         <v>42</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>9020</v>
+        <v>9084</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>2980</v>
+        <v>2916</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.75166666666666671</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -703,15 +703,15 @@
         <v>43</v>
       </c>
       <c r="I6" s="1">
-        <v>60</v>
-      </c>
-      <c r="J6" s="1">
+        <v>62</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -741,12 +741,12 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1">
+        <v>64</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -782,12 +782,12 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" s="1">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1">
+        <v>66</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -823,12 +823,12 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I9" s="1">
-        <v>80</v>
-      </c>
-      <c r="J9" s="1">
+        <v>82</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -864,12 +864,12 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1">
-        <v>82</v>
-      </c>
-      <c r="J10" s="1">
+        <v>84</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -888,15 +888,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>33159</v>
+        <v>33223</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>19341</v>
+        <v>19277</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.63160000000000005</v>
+        <v>0.63281904761904761</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>
@@ -910,11 +910,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEDBB82-46B3-4837-A35F-AE849E84CF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E0B3B-3274-4AF4-8580-A29D04B19A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>9084</v>
+        <v>9285</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>2916</v>
+        <v>2715</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.75700000000000001</v>
+        <v>0.77375000000000005</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -703,15 +703,15 @@
         <v>43</v>
       </c>
       <c r="I6" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -741,10 +741,10 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
@@ -781,11 +781,10 @@
         <v>83</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="5"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="2"/>
@@ -822,11 +821,10 @@
         <v>97</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="5"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
@@ -863,11 +861,10 @@
         <v>123</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="5"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="2"/>
@@ -888,15 +885,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>33223</v>
+        <v>33424</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>19277</v>
+        <v>19076</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.63281904761904761</v>
+        <v>0.63664761904761902</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>
@@ -910,11 +907,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E0B3B-3274-4AF4-8580-A29D04B19A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AB0E4-8960-4654-B752-81999BC63C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="40530" yWindow="2850" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,7 +658,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5:H10" si="5">H4+J4</f>
+        <f t="shared" ref="H5:H7" si="5">H4+J4</f>
         <v>35</v>
       </c>
       <c r="I5" s="1">
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>9285</v>
+        <v>9694</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>2715</v>
+        <v>2306</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.77375000000000005</v>
+        <v>0.80783333333333329</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -885,15 +885,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>33424</v>
+        <v>33833</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>19076</v>
+        <v>18667</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.63664761904761902</v>
+        <v>0.64443809523809525</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AB0E4-8960-4654-B752-81999BC63C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BCC0DA-A38B-44F5-BACB-BD46D3B84181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40530" yWindow="2850" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="5670" yWindow="2685" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>9694</v>
+        <v>10014</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>2306</v>
+        <v>1986</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.80783333333333329</v>
+        <v>0.83450000000000002</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -885,15 +885,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>33833</v>
+        <v>34153</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>18667</v>
+        <v>18347</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.64443809523809525</v>
+        <v>0.6505333333333333</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BCC0DA-A38B-44F5-BACB-BD46D3B84181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED1D1E-7A3D-4635-A081-CD9C9C7CB099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2685" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>10014</v>
+        <v>10262</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1986</v>
+        <v>1738</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.83450000000000002</v>
+        <v>0.85516666666666663</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -885,15 +885,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>34153</v>
+        <v>34401</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>18347</v>
+        <v>18099</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.6505333333333333</v>
+        <v>0.65525714285714287</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED1D1E-7A3D-4635-A081-CD9C9C7CB099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DB2A5-B417-47E9-B896-33870FA16FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>10262</v>
+        <v>10368</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1738</v>
+        <v>1632</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.85516666666666663</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -885,15 +885,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>34401</v>
+        <v>34507</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>18099</v>
+        <v>17993</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.65525714285714287</v>
+        <v>0.65727619047619046</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DB2A5-B417-47E9-B896-33870FA16FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0745DFB-30DE-4E09-948C-890CA876E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="4500" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="9285" yWindow="5490" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>10368</v>
+        <v>10869</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1632</v>
+        <v>1131</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.86399999999999999</v>
+        <v>0.90575000000000006</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -725,8 +725,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
@@ -766,8 +765,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
@@ -885,15 +883,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>34507</v>
+        <v>35008</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>17993</v>
+        <v>17492</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.65727619047619046</v>
+        <v>0.66681904761904764</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0745DFB-30DE-4E09-948C-890CA876E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A146D9-ED12-4DAC-9C64-68B3C7F33673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="5490" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="8100" yWindow="3840" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,37 +681,36 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>10869</v>
+        <v>11260</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1131</v>
+        <v>740</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.90575000000000006</v>
+        <v>0.93833333333333335</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="I6" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -736,22 +735,22 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -776,7 +775,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="5">
         <v>67</v>
@@ -816,7 +815,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H9" s="5">
         <v>69</v>
@@ -856,7 +855,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5">
         <v>85</v>
@@ -883,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>35008</v>
+        <v>35399</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>17492</v>
+        <v>17101</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.66681904761904764</v>
+        <v>0.67426666666666668</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>
@@ -899,17 +898,17 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f t="shared" si="6"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A146D9-ED12-4DAC-9C64-68B3C7F33673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79A982C-C41B-417A-9ED3-202B745E1A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="3840" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>11260</v>
+        <v>11381</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>740</v>
+        <v>619</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.93833333333333335</v>
+        <v>0.94841666666666669</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>35399</v>
+        <v>35520</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>17101</v>
+        <v>16980</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.67426666666666668</v>
+        <v>0.6765714285714286</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79A982C-C41B-417A-9ED3-202B745E1A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE5BA4-39B5-44AD-AE17-00A42B94894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="5475" yWindow="2610" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>11381</v>
+        <v>11523</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>619</v>
+        <v>477</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.94841666666666669</v>
+        <v>0.96025000000000005</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>35520</v>
+        <v>35662</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>16980</v>
+        <v>16838</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.6765714285714286</v>
+        <v>0.67927619047619048</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE5BA4-39B5-44AD-AE17-00A42B94894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9DCB6-906D-49F8-ABB4-4572580F95D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="2610" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>11523</v>
+        <v>11737</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>477</v>
+        <v>263</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.96025000000000005</v>
+        <v>0.9780833333333333</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>35662</v>
+        <v>35876</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>16838</v>
+        <v>16624</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.67927619047619048</v>
+        <v>0.68335238095238093</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9DCB6-906D-49F8-ABB4-4572580F95D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBAC78C-0F5A-4039-901F-ABF65F1D57A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="2610" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,15 +640,15 @@
         <v>3000</v>
       </c>
       <c r="C5" s="1">
-        <v>2790</v>
+        <v>2798</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>0.93</v>
+        <v>0.93266666666666664</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>11737</v>
+        <v>11934</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.9780833333333333</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>35876</v>
+        <v>36081</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>16624</v>
+        <v>16419</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.68335238095238093</v>
+        <v>0.6872571428571429</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBAC78C-0F5A-4039-901F-ABF65F1D57A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A3B83-FD59-4813-8D24-608B3D0C146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="2610" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="10320" yWindow="1425" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>11934</v>
+        <v>12177</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>-177</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.99450000000000005</v>
+        <v>1.01475</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -702,15 +702,15 @@
         <v>43</v>
       </c>
       <c r="I6" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -739,18 +739,18 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>36081</v>
+        <v>36324</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>16419</v>
+        <v>16176</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.6872571428571429</v>
+        <v>0.69188571428571433</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>
@@ -904,11 +904,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A3B83-FD59-4813-8D24-608B3D0C146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52313E-FD6B-46D5-9BC4-0A2988AEFF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1425" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="7890" yWindow="6810" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>12177</v>
+        <v>12299</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-177</v>
+        <v>-299</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>1.01475</v>
+        <v>1.0249166666666667</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>36324</v>
+        <v>36446</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>16176</v>
+        <v>16054</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.69188571428571433</v>
+        <v>0.69420952380952383</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52313E-FD6B-46D5-9BC4-0A2988AEFF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57027F-FA83-4743-A86E-A96FD46BEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7890" yWindow="6810" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>12299</v>
+        <v>12465</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-299</v>
+        <v>-465</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>1.0249166666666667</v>
+        <v>1.0387500000000001</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>36446</v>
+        <v>36612</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>16054</v>
+        <v>15888</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.69420952380952383</v>
+        <v>0.69737142857142853</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57027F-FA83-4743-A86E-A96FD46BEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F8FC6-BE57-4DF8-9363-8DA9A7C0E763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7890" yWindow="6810" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>12465</v>
+        <v>12665</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-465</v>
+        <v>-665</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>1.0387500000000001</v>
+        <v>1.0554166666666667</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -882,15 +882,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>36612</v>
+        <v>36812</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>15888</v>
+        <v>15688</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.69737142857142853</v>
+        <v>0.70118095238095235</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F8FC6-BE57-4DF8-9363-8DA9A7C0E763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24744074-294B-431D-9AD4-63F1A7313DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="6810" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="12480" yWindow="5295" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,21 +557,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="C3" s="1">
-        <v>11118</v>
+        <v>15572</v>
       </c>
       <c r="D3" s="3">
         <f>B3-C3</f>
-        <v>2882</v>
+        <v>2928</v>
       </c>
       <c r="E3" s="4">
         <f>C3/B3</f>
-        <v>0.79414285714285715</v>
+        <v>0.8417297297297297</v>
       </c>
       <c r="F3" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -580,11 +580,11 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1">
         <f>I3-H3+1</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3">
         <f>F3-J3</f>
@@ -596,39 +596,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>4371</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D10" si="0">B4-C4</f>
-        <v>129</v>
-      </c>
-      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="e">
         <f t="shared" ref="E4:E11" si="1">C4/B4</f>
-        <v>0.97133333333333338</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>F3+G3</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>H3+J3</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J10" si="2">I4-H4+1</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K11" si="3">F4-J4</f>
+        <f t="shared" ref="K4:K11" si="2">F4-J4</f>
         <v>0</v>
       </c>
     </row>
@@ -651,26 +648,24 @@
         <v>0.93266666666666664</v>
       </c>
       <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>33</v>
+      </c>
+      <c r="H5" s="5">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J4:J10" si="3">I5-H5+1</f>
         <v>8</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G11" si="4">F4+G4</f>
-        <v>37</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" ref="H5:H7" si="5">H4+J4</f>
-        <v>35</v>
-      </c>
-      <c r="I5" s="1">
-        <v>42</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -681,36 +676,36 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>12665</v>
+        <v>12654</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-665</v>
+        <v>-654</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>1.0554166666666667</v>
+        <v>1.0545</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
       </c>
       <c r="G6" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="5"/>
-        <v>43</v>
+        <f t="shared" ref="H5:H7" si="4">H5+J5</f>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <v>70</v>
       </c>
       <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -734,22 +729,22 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" ref="G5:G11" si="5">F6+G6</f>
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="I7" s="1">
         <v>72</v>
       </c>
       <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -774,8 +769,8 @@
         <v>14</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>81</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
       <c r="H8" s="5">
         <v>67</v>
@@ -784,11 +779,11 @@
         <v>68</v>
       </c>
       <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -814,8 +809,8 @@
         <v>26</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>93</v>
       </c>
       <c r="H9" s="5">
         <v>69</v>
@@ -824,11 +819,11 @@
         <v>84</v>
       </c>
       <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -854,8 +849,8 @@
         <v>4</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="4"/>
-        <v>121</v>
+        <f t="shared" si="5"/>
+        <v>119</v>
       </c>
       <c r="H10" s="5">
         <v>85</v>
@@ -864,11 +859,11 @@
         <v>86</v>
       </c>
       <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -882,23 +877,23 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>36812</v>
+        <v>36884</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>15688</v>
+        <v>15616</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.70118095238095235</v>
+        <v>0.70255238095238093</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="4"/>
-        <v>125</v>
+        <f t="shared" si="5"/>
+        <v>123</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -907,7 +902,7 @@
         <v>92</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>

--- a/excel/sum.xlsx
+++ b/excel/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UrgeData\Documents\Codes\Graduate\zjuthesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24744074-294B-431D-9AD4-63F1A7313DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE6109-B612-4CFF-B22D-C9588A2EE2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="5295" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
+    <workbookView xWindow="7410" yWindow="5550" windowWidth="23985" windowHeight="14400" xr2:uid="{C6DFE509-A379-4283-BC94-1C435EFBF6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J4:J10" si="3">I5-H5+1</f>
+        <f t="shared" ref="J5:J10" si="3">I5-H5+1</f>
         <v>8</v>
       </c>
       <c r="K5" s="3">
@@ -676,15 +676,15 @@
         <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>12654</v>
+        <v>12908</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-654</v>
+        <v>-908</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>1.0545</v>
+        <v>1.0756666666666668</v>
       </c>
       <c r="F6" s="1">
         <v>30</v>
@@ -693,7 +693,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H5:H7" si="4">H5+J5</f>
+        <f t="shared" ref="H6:H7" si="4">H5+J5</f>
         <v>41</v>
       </c>
       <c r="I6" s="1">
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G5:G11" si="5">F6+G6</f>
+        <f t="shared" ref="G7:G11" si="5">F6+G6</f>
         <v>71</v>
       </c>
       <c r="H7" s="5">
@@ -877,15 +877,15 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:J11" si="6">SUM(C3:C10)</f>
-        <v>36884</v>
+        <v>37138</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="6"/>
-        <v>15616</v>
+        <v>15362</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.70255238095238093</v>
+        <v>0.70739047619047624</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="6"/>
